--- a/biology/Botanique/Rufusia/Rufusia.xlsx
+++ b/biology/Botanique/Rufusia/Rufusia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rufusia pilicola est une espèce d'algue rouge unicellulaire de la famille des Rufusiaceae. C'est, en 2013, l'unique espèce décrite du genre Rufusia.
 Elle vit, avec deux espèces d'algues vertes (Dictyococcus bradypodis et Chlorococcum choloepodis), de façon commensale sur les poils du paresseux  Bradypus variegatus. Ces algues donnent sa couleur à la fourrure de l'animal et lui permettent de se camoufler dans les feuillages.
